--- a/promocje.xlsx
+++ b/promocje.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">h1</t>
   </si>
@@ -40,31 +40,22 @@
     <t xml:space="preserve">cena_brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">lepy lepy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W dniach 10.01.2025 - 10.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oreło</t>
+    <t xml:space="preserve">Promocja SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W dniach 01.01.2025 - 10.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danoi danio 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanex Ser Włościański</t>
   </si>
   <si>
     <t xml:space="preserve">kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promocja SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W dniach 01.01.2025 - 10.01.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danoi danio 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">szt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanex Ser Włościański</t>
   </si>
 </sst>
 </file>
@@ -168,17 +159,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.55"/>
   </cols>
   <sheetData>
@@ -203,10 +194,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -216,69 +207,29 @@
         <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>88.88</v>
+        <v>1.23</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>8.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="0" t="n">
-        <v>1.23</v>
+        <v>22.55</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>35</v>
       </c>
     </row>
